--- a/fuction_ensemble_3/redes-ensemble-s/mse_sup/better_results_03.xlsx
+++ b/fuction_ensemble_3/redes-ensemble-s/mse_sup/better_results_03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>model</t>
   </si>
@@ -115,13 +115,100 @@
   </si>
   <si>
     <t>Hidden Size=[5], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_24_9_8</t>
+  </si>
+  <si>
+    <t>model_2_8_14</t>
+  </si>
+  <si>
+    <t>Hidden Size=[5], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_30_8_1</t>
+  </si>
+  <si>
+    <t>Hidden Size=[12], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_8_7_0</t>
+  </si>
+  <si>
+    <t>model_38_7_24</t>
+  </si>
+  <si>
+    <t>model_26_4_3</t>
+  </si>
+  <si>
+    <t>Hidden Size=[11], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_35_7_20</t>
+  </si>
+  <si>
+    <t>Hidden Size=[13], regularizer=0.05, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_18_8_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[9], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>Hidden Size=[3, 3], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_21_9_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[4, 3], regularizer=0.2, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_7_9_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[2, 3], regularizer=0.05, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_29_6_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[2, 9], regularizer=0.2, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_118_8_22</t>
+  </si>
+  <si>
+    <t>model_9_9_15</t>
+  </si>
+  <si>
+    <t>Hidden Size=[2, 5], regularizer=0.2, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_37_9_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[3, 5], regularizer=0.2, learning_rate=0.01</t>
+  </si>
+  <si>
+    <t>model_36_7_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[2, 8], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_18_3_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[3, 2], regularizer=0.2, learning_rate=0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +234,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -214,6 +312,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +628,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1119,950 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H9" s="16">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N9" s="16">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P9" s="16">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R9" s="16">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.99999218770527987</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.992982357477315</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.99999997927456563</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.9999999258264769</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.99999996214046494</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1.7425893607099019</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1565.336387751147</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5.0045066522604632E-3</v>
+      </c>
+      <c r="K10" s="17">
+        <v>8.9733731965885924E-3</v>
+      </c>
+      <c r="L10" s="17">
+        <v>6.9889399244245278E-3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>8.1840253052683793E-4</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1.320071725592932</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0.99993750164223894</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1.3762699118766091</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>40.889255709230198</v>
+      </c>
+      <c r="R10" s="17">
+        <v>66.485648031462404</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.99997989186445757</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.99207995916916358</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.99999128636003365</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.99995143737273384</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.99999129945207521</v>
+      </c>
+      <c r="H11" s="17">
+        <v>4.4852664057317799</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1766.62291715588</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5.2320225189785052</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1.273103044574164</v>
+      </c>
+      <c r="L11" s="17">
+        <v>3.252562781776335</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1.147814653104413E-2</v>
+      </c>
+      <c r="N11" s="17">
+        <v>2.1178447548703332</v>
+      </c>
+      <c r="O11" s="17">
+        <v>1.0000193038101211</v>
+      </c>
+      <c r="P11" s="17">
+        <v>2.2080057906281829</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>94.998404213964022</v>
+      </c>
+      <c r="R11" s="17">
+        <v>154.72331963250579</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.99975810105021912</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.99429307024428182</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.99917196171652389</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.99998161624066606</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.99998905217068557</v>
+      </c>
+      <c r="H12" s="17">
+        <v>53.957326413638029</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1272.9723379451241</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1.6084799855657841</v>
+      </c>
+      <c r="K12" s="17">
+        <v>6.7665005806508303</v>
+      </c>
+      <c r="L12" s="17">
+        <v>4.187490283108307</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.9460639613186091E-2</v>
+      </c>
+      <c r="N12" s="17">
+        <v>7.3455650847050578</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.005805574794741</v>
+      </c>
+      <c r="P12" s="17">
+        <v>7.6582809977769104</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>42.023613034896833</v>
+      </c>
+      <c r="R12" s="17">
+        <v>72.495508656601857</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.99962287770664349</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.99236544987445297</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.99995149897695423</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.99999999999701639</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.99996093718701196</v>
+      </c>
+      <c r="H13" s="17">
+        <v>84.119880218291698</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1702.94213149181</v>
+      </c>
+      <c r="J13" s="17">
+        <v>13.147172973413291</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1.8245485769014549E-7</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6.5735865772689044</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6.2762173360878387E-2</v>
+      </c>
+      <c r="N13" s="17">
+        <v>9.1716890602708343</v>
+      </c>
+      <c r="O13" s="17">
+        <v>1.000274270758805</v>
+      </c>
+      <c r="P13" s="17">
+        <v>9.5621468515802786</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>105.1355141462101</v>
+      </c>
+      <c r="R13" s="17">
+        <v>174.6114361636975</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.99942345233512342</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.9924211999478989</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.99991352320933935</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.9999999999893221</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.99992015723882988</v>
+      </c>
+      <c r="H14" s="17">
+        <v>128.60316497839861</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1690.5066706796231</v>
+      </c>
+      <c r="J14" s="17">
+        <v>23.929165419898219</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1.162008202952765E-7</v>
+      </c>
+      <c r="L14" s="17">
+        <v>11.96480668553319</v>
+      </c>
+      <c r="M14" s="17">
+        <v>6.6939297533518946E-2</v>
+      </c>
+      <c r="N14" s="17">
+        <v>11.34033354793406</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1.0006589116170019</v>
+      </c>
+      <c r="P14" s="17">
+        <v>11.823115024796291</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>80.28653715493958</v>
+      </c>
+      <c r="R14" s="17">
+        <v>135.1359492740086</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.99766809203915618</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.99072769136059191</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.99984076703913527</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.9999065011874797</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.99987890630801524</v>
+      </c>
+      <c r="H15" s="17">
+        <v>520.14909169222085</v>
+      </c>
+      <c r="I15" s="17">
+        <v>2068.2561223097782</v>
+      </c>
+      <c r="J15" s="17">
+        <v>34.309489390583138</v>
+      </c>
+      <c r="K15" s="17">
+        <v>21.773031497253239</v>
+      </c>
+      <c r="L15" s="17">
+        <v>28.040927297337451</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.1542039146440998</v>
+      </c>
+      <c r="N15" s="17">
+        <v>22.80677731930184</v>
+      </c>
+      <c r="O15" s="17">
+        <v>1.0019298548641471</v>
+      </c>
+      <c r="P15" s="17">
+        <v>23.77770904632203</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>93.491769029453252</v>
+      </c>
+      <c r="R15" s="17">
+        <v>158.0921877474679</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.99991208104439666</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.99336829381704517</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.99980873033755913</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.99986774661540323</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.99985574504852781</v>
+      </c>
+      <c r="H16" s="17">
+        <v>19.610964783994181</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1479.250470153831</v>
+      </c>
+      <c r="J16" s="17">
+        <v>33.324613275280392</v>
+      </c>
+      <c r="K16" s="17">
+        <v>88.712707533848189</v>
+      </c>
+      <c r="L16" s="17">
+        <v>61.018660404564287</v>
+      </c>
+      <c r="M16" s="17">
+        <v>1.6181416133946639E-2</v>
+      </c>
+      <c r="N16" s="17">
+        <v>4.4284268972169096</v>
+      </c>
+      <c r="O16" s="17">
+        <v>1.000162311918037</v>
+      </c>
+      <c r="P16" s="17">
+        <v>4.6169541983388678</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>68.047822324860192</v>
+      </c>
+      <c r="R16" s="17">
+        <v>113.1462278449836</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.99999879617661225</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.99999999109102855</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.99999995359119465</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J17" s="17">
+        <v>3.0382062424433951E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>3.5590408056663959E-3</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1.6970551615050171E-2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R17" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.99991973335180717</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.99265257317156963</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.99989164001979725</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.99992212262875202</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.99991645300347731</v>
+      </c>
+      <c r="H18" s="17">
+        <v>17.90406176047442</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1638.897184304079</v>
+      </c>
+      <c r="J18" s="17">
+        <v>58.383225115271593</v>
+      </c>
+      <c r="K18" s="17">
+        <v>5.4220746526353496</v>
+      </c>
+      <c r="L18" s="17">
+        <v>31.902567125481252</v>
+      </c>
+      <c r="M18" s="17">
+        <v>4.1093983049561487E-2</v>
+      </c>
+      <c r="N18" s="17">
+        <v>4.231319151337372</v>
+      </c>
+      <c r="O18" s="17">
+        <v>1.000275199936661</v>
+      </c>
+      <c r="P18" s="17">
+        <v>4.4114551676479543</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>56.229944797802787</v>
+      </c>
+      <c r="R18" s="17">
+        <v>94.015095368716999</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.99983264831149599</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.99238322205366836</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.99992256002412117</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.99985414897398239</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.99989112054225349</v>
+      </c>
+      <c r="H19" s="17">
+        <v>37.329015651644617</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1698.9779171954119</v>
+      </c>
+      <c r="J19" s="17">
+        <v>8.1525302106864395</v>
+      </c>
+      <c r="K19" s="17">
+        <v>23.545991798486259</v>
+      </c>
+      <c r="L19" s="17">
+        <v>15.849261004586349</v>
+      </c>
+      <c r="M19" s="17">
+        <v>5.5137296114229788E-2</v>
+      </c>
+      <c r="N19" s="17">
+        <v>6.1097475931207352</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.99919671189518078</v>
+      </c>
+      <c r="P19" s="17">
+        <v>6.3698521970809647</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>30.760458152498671</v>
+      </c>
+      <c r="R19" s="17">
+        <v>53.919098824994492</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.99949848826814214</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.99383879568986722</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.99994866333820076</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.9998119417149649</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.9998516837043564</v>
+      </c>
+      <c r="H20" s="17">
+        <v>111.86585241747549</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1374.3015931409991</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3.054805281735006</v>
+      </c>
+      <c r="K20" s="17">
+        <v>39.003095034058937</v>
+      </c>
+      <c r="L20" s="17">
+        <v>21.028950157896968</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0.1244610139093368</v>
+      </c>
+      <c r="N20" s="17">
+        <v>10.57666546778688</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1.0006334885033989</v>
+      </c>
+      <c r="P20" s="17">
+        <v>11.02693601346639</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>76.565399185697572</v>
+      </c>
+      <c r="R20" s="17">
+        <v>128.97705965503019</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>0.99994937406821782</v>
+      </c>
+      <c r="D21">
+        <v>0.99337105386814373</v>
+      </c>
+      <c r="E21">
+        <v>0.99979970160007314</v>
+      </c>
+      <c r="F21">
+        <v>0.99977886362860002</v>
+      </c>
+      <c r="G21">
+        <v>0.99979232168156051</v>
+      </c>
+      <c r="H21">
+        <v>11.29248361202594</v>
+      </c>
+      <c r="I21">
+        <v>1478.6348206101991</v>
+      </c>
+      <c r="J21">
+        <v>9.4874219543275231</v>
+      </c>
+      <c r="K21">
+        <v>15.327834908552081</v>
+      </c>
+      <c r="L21">
+        <v>12.4076284314398</v>
+      </c>
+      <c r="M21">
+        <v>4.6129517290417983E-2</v>
+      </c>
+      <c r="N21">
+        <v>3.3604290815349671</v>
+      </c>
+      <c r="O21">
+        <v>1.000405007454257</v>
+      </c>
+      <c r="P21">
+        <v>3.5034895045830878</v>
+      </c>
+      <c r="Q21">
+        <v>49.151725325361653</v>
+      </c>
+      <c r="R21">
+        <v>82.061372596803068</v>
+      </c>
+      <c r="S21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>0.99992470803520983</v>
+      </c>
+      <c r="D22">
+        <v>0.99322471591859562</v>
+      </c>
+      <c r="E22">
+        <v>0.99994891469568969</v>
+      </c>
+      <c r="F22">
+        <v>0.99993986552446057</v>
+      </c>
+      <c r="G22">
+        <v>0.99994929026719659</v>
+      </c>
+      <c r="H22">
+        <v>16.794422316368141</v>
+      </c>
+      <c r="I22">
+        <v>1511.2765684045689</v>
+      </c>
+      <c r="J22">
+        <v>10.97763826215439</v>
+      </c>
+      <c r="K22">
+        <v>4.5423571677885723</v>
+      </c>
+      <c r="L22">
+        <v>7.7599536693952587</v>
+      </c>
+      <c r="M22">
+        <v>9.0134104186274308E-3</v>
+      </c>
+      <c r="N22">
+        <v>4.0980998421668717</v>
+      </c>
+      <c r="O22">
+        <v>1.0001642733777241</v>
+      </c>
+      <c r="P22">
+        <v>4.2725644366840791</v>
+      </c>
+      <c r="Q22">
+        <v>64.357906347389459</v>
+      </c>
+      <c r="R22">
+        <v>107.0185602177765</v>
+      </c>
+      <c r="S22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>0.99989666986759929</v>
+      </c>
+      <c r="D23">
+        <v>0.99361007661827672</v>
+      </c>
+      <c r="E23">
+        <v>0.99972554433477179</v>
+      </c>
+      <c r="F23">
+        <v>0.99986634096501237</v>
+      </c>
+      <c r="G23">
+        <v>0.99986502375285169</v>
+      </c>
+      <c r="H23">
+        <v>23.048540257652999</v>
+      </c>
+      <c r="I23">
+        <v>1425.319051521908</v>
+      </c>
+      <c r="J23">
+        <v>7.1950461223582991</v>
+      </c>
+      <c r="K23">
+        <v>86.875491690521386</v>
+      </c>
+      <c r="L23">
+        <v>47.035268906439853</v>
+      </c>
+      <c r="M23">
+        <v>2.010241416833531E-2</v>
+      </c>
+      <c r="N23">
+        <v>4.8008895277493107</v>
+      </c>
+      <c r="O23">
+        <v>1.000165328211841</v>
+      </c>
+      <c r="P23">
+        <v>5.0052733341569704</v>
+      </c>
+      <c r="Q23">
+        <v>71.724795123897437</v>
+      </c>
+      <c r="R23">
+        <v>119.2609522937573</v>
+      </c>
+      <c r="S23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>0.99988995271000425</v>
+      </c>
+      <c r="D24">
+        <v>0.99360822155780515</v>
+      </c>
+      <c r="E24">
+        <v>0.99997777924823794</v>
+      </c>
+      <c r="F24">
+        <v>0.99999695090609186</v>
+      </c>
+      <c r="G24">
+        <v>0.99999347054581544</v>
+      </c>
+      <c r="H24">
+        <v>24.546851288999381</v>
+      </c>
+      <c r="I24">
+        <v>1425.732836300537</v>
+      </c>
+      <c r="J24">
+        <v>1.177251018820022</v>
+      </c>
+      <c r="K24">
+        <v>0.66238766573018304</v>
+      </c>
+      <c r="L24">
+        <v>0.91981934227510254</v>
+      </c>
+      <c r="M24">
+        <v>1.6994387776231121E-2</v>
+      </c>
+      <c r="N24">
+        <v>4.9544779027662829</v>
+      </c>
+      <c r="O24">
+        <v>0.99933971626002549</v>
+      </c>
+      <c r="P24">
+        <v>5.1654002842701798</v>
+      </c>
+      <c r="Q24">
+        <v>33.59883282210469</v>
+      </c>
+      <c r="R24">
+        <v>57.976349319468703</v>
+      </c>
+      <c r="S24" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fuction_ensemble_3/redes-ensemble-s/mse_sup/better_results_03.xlsx
+++ b/fuction_ensemble_3/redes-ensemble-s/mse_sup/better_results_03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="146">
   <si>
     <t>model</t>
   </si>
@@ -202,6 +202,261 @@
   </si>
   <si>
     <t>Hidden Size=[3, 2], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_14_9_21</t>
+  </si>
+  <si>
+    <t>Hidden Size=[16], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_30_6_24</t>
+  </si>
+  <si>
+    <t>Hidden Size=[20], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_8_3_20</t>
+  </si>
+  <si>
+    <t>Hidden Size=[3], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_22_5_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[18], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_26_8_14</t>
+  </si>
+  <si>
+    <t>Hidden Size=[19], regularizer=0.2, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_36_6_0</t>
+  </si>
+  <si>
+    <t>Hidden Size=[21], regularizer=0.05, learning_rate=0.1</t>
+  </si>
+  <si>
+    <t>model_9_9_14</t>
+  </si>
+  <si>
+    <t>model_9_9_13</t>
+  </si>
+  <si>
+    <t>model_9_9_12</t>
+  </si>
+  <si>
+    <t>model_9_9_11</t>
+  </si>
+  <si>
+    <t>model_9_9_10</t>
+  </si>
+  <si>
+    <t>model_9_9_9</t>
+  </si>
+  <si>
+    <t>model_9_9_8</t>
+  </si>
+  <si>
+    <t>model_9_9_7</t>
+  </si>
+  <si>
+    <t>model_9_9_6</t>
+  </si>
+  <si>
+    <t>model_9_9_5</t>
+  </si>
+  <si>
+    <t>model_9_9_2</t>
+  </si>
+  <si>
+    <t>model_9_9_4</t>
+  </si>
+  <si>
+    <t>model_9_9_3</t>
+  </si>
+  <si>
+    <t>model_9_9_1</t>
+  </si>
+  <si>
+    <t>model_37_9_23</t>
+  </si>
+  <si>
+    <t>model_37_9_22</t>
+  </si>
+  <si>
+    <t>model_37_9_21</t>
+  </si>
+  <si>
+    <t>model_9_9_0</t>
+  </si>
+  <si>
+    <t>model_37_9_20</t>
+  </si>
+  <si>
+    <t>model_14_9_0</t>
+  </si>
+  <si>
+    <t>model_14_9_4</t>
+  </si>
+  <si>
+    <t>model_14_9_7</t>
+  </si>
+  <si>
+    <t>model_14_9_8</t>
+  </si>
+  <si>
+    <t>model_14_9_9</t>
+  </si>
+  <si>
+    <t>model_14_9_10</t>
+  </si>
+  <si>
+    <t>model_14_9_12</t>
+  </si>
+  <si>
+    <t>model_14_9_19</t>
+  </si>
+  <si>
+    <t>model_14_9_20</t>
+  </si>
+  <si>
+    <t>model_14_9_22</t>
+  </si>
+  <si>
+    <t>model_14_9_23</t>
+  </si>
+  <si>
+    <t>model_14_9_24</t>
+  </si>
+  <si>
+    <t>model_24_9_0</t>
+  </si>
+  <si>
+    <t>model_24_9_1</t>
+  </si>
+  <si>
+    <t>model_24_9_5</t>
+  </si>
+  <si>
+    <t>model_24_9_6</t>
+  </si>
+  <si>
+    <t>model_24_9_7</t>
+  </si>
+  <si>
+    <t>model_24_9_9</t>
+  </si>
+  <si>
+    <t>model_24_9_10</t>
+  </si>
+  <si>
+    <t>model_24_9_11</t>
+  </si>
+  <si>
+    <t>model_24_9_13</t>
+  </si>
+  <si>
+    <t>model_24_9_14</t>
+  </si>
+  <si>
+    <t>model_24_9_15</t>
+  </si>
+  <si>
+    <t>model_24_9_16</t>
+  </si>
+  <si>
+    <t>model_24_9_17</t>
+  </si>
+  <si>
+    <t>model_24_9_18</t>
+  </si>
+  <si>
+    <t>model_24_9_19</t>
+  </si>
+  <si>
+    <t>model_24_9_20</t>
+  </si>
+  <si>
+    <t>model_24_9_21</t>
+  </si>
+  <si>
+    <t>model_24_9_22</t>
+  </si>
+  <si>
+    <t>model_24_9_23</t>
+  </si>
+  <si>
+    <t>model_24_9_24</t>
+  </si>
+  <si>
+    <t>model_18_4_0</t>
+  </si>
+  <si>
+    <t>model_18_4_1</t>
+  </si>
+  <si>
+    <t>model_18_4_2</t>
+  </si>
+  <si>
+    <t>model_18_4_3</t>
+  </si>
+  <si>
+    <t>model_18_4_4</t>
+  </si>
+  <si>
+    <t>model_18_4_8</t>
+  </si>
+  <si>
+    <t>model_18_4_9</t>
+  </si>
+  <si>
+    <t>model_18_4_10</t>
+  </si>
+  <si>
+    <t>model_18_4_11</t>
+  </si>
+  <si>
+    <t>model_18_4_12</t>
+  </si>
+  <si>
+    <t>model_18_4_13</t>
+  </si>
+  <si>
+    <t>model_18_4_14</t>
+  </si>
+  <si>
+    <t>model_18_4_15</t>
+  </si>
+  <si>
+    <t>model_18_4_16</t>
+  </si>
+  <si>
+    <t>model_18_4_17</t>
+  </si>
+  <si>
+    <t>model_18_4_18</t>
+  </si>
+  <si>
+    <t>model_18_4_19</t>
+  </si>
+  <si>
+    <t>model_18_4_20</t>
+  </si>
+  <si>
+    <t>model_18_4_21</t>
+  </si>
+  <si>
+    <t>model_18_4_22</t>
+  </si>
+  <si>
+    <t>model_18_4_23</t>
+  </si>
+  <si>
+    <t>model_18_4_24</t>
   </si>
 </sst>
 </file>
@@ -255,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,11 +533,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -323,6 +591,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,16 +900,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="3" customWidth="1"/>
     <col min="3" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1831,43 +2103,43 @@
       <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>0.99994937406821782</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>0.99337105386814373</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>0.99979970160007314</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="17">
         <v>0.99977886362860002</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="17">
         <v>0.99979232168156051</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="17">
         <v>11.29248361202594</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="17">
         <v>1478.6348206101991</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="17">
         <v>9.4874219543275231</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="17">
         <v>15.327834908552081</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="17">
         <v>12.4076284314398</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="17">
         <v>4.6129517290417983E-2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="17">
         <v>3.3604290815349671</v>
       </c>
       <c r="O21">
@@ -1890,43 +2162,43 @@
       <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>0.99992470803520983</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="17">
         <v>0.99322471591859562</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="17">
         <v>0.99994891469568969</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="17">
         <v>0.99993986552446057</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="17">
         <v>0.99994929026719659</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="17">
         <v>16.794422316368141</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="17">
         <v>1511.2765684045689</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="17">
         <v>10.97763826215439</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="17">
         <v>4.5423571677885723</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="17">
         <v>7.7599536693952587</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="17">
         <v>9.0134104186274308E-3</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="17">
         <v>4.0980998421668717</v>
       </c>
       <c r="O22">
@@ -1949,43 +2221,43 @@
       <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>0.99989666986759929</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="17">
         <v>0.99361007661827672</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="17">
         <v>0.99972554433477179</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="17">
         <v>0.99986634096501237</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="17">
         <v>0.99986502375285169</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="17">
         <v>23.048540257652999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="17">
         <v>1425.319051521908</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="17">
         <v>7.1950461223582991</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="17">
         <v>86.875491690521386</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="17">
         <v>47.035268906439853</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="17">
         <v>2.010241416833531E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="17">
         <v>4.8008895277493107</v>
       </c>
       <c r="O23">
@@ -2008,43 +2280,43 @@
       <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="17">
         <v>0.99988995271000425</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="17">
         <v>0.99360822155780515</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="17">
         <v>0.99997777924823794</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="17">
         <v>0.99999695090609186</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="17">
         <v>0.99999347054581544</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="17">
         <v>24.546851288999381</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="17">
         <v>1425.732836300537</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="17">
         <v>1.177251018820022</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="17">
         <v>0.66238766573018304</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="17">
         <v>0.91981934227510254</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="17">
         <v>1.6994387776231121E-2</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="17">
         <v>4.9544779027662829</v>
       </c>
       <c r="O24">
@@ -2062,6 +2334,4769 @@
       <c r="S24" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.99994805253668495</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.99347215819543755</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.99981962700250349</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.99984003903501384</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.9998357073320544</v>
+      </c>
+      <c r="H25" s="16">
+        <v>11.58726086653849</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1456.0827624281719</v>
+      </c>
+      <c r="J25" s="16">
+        <v>8.5436265943272716</v>
+      </c>
+      <c r="K25" s="16">
+        <v>11.08752598045124</v>
+      </c>
+      <c r="L25" s="16">
+        <v>9.8155762873892556</v>
+      </c>
+      <c r="M25" s="16">
+        <v>4.710969791017159E-2</v>
+      </c>
+      <c r="N25" s="16">
+        <v>3.4040065902607308</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.00041557970652</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.5489221980731869</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>49.100187413025807</v>
+      </c>
+      <c r="R25" s="1">
+        <v>82.009834684467236</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.99994756476738977</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.99347422618473824</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.99981737973834639</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.9998353317392078</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.99983208585672367</v>
+      </c>
+      <c r="H26" s="16">
+        <v>11.69606136813727</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1455.62148232002</v>
+      </c>
+      <c r="J26" s="16">
+        <v>8.6500714950836333</v>
+      </c>
+      <c r="K26" s="16">
+        <v>11.413807236329671</v>
+      </c>
+      <c r="L26" s="16">
+        <v>10.03193936570665</v>
+      </c>
+      <c r="M26" s="16">
+        <v>4.7252130864551871E-2</v>
+      </c>
+      <c r="N26" s="16">
+        <v>3.4199504920593911</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.000419481860882</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.565544864779842</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>49.081495700145162</v>
+      </c>
+      <c r="R26" s="1">
+        <v>81.991142971586584</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.99994684002994205</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.99349146300143654</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.99982089758921444</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.99983647956288424</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.99983414620064714</v>
+      </c>
+      <c r="H27" s="16">
+        <v>11.857719345833321</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1451.7766845407721</v>
+      </c>
+      <c r="J27" s="16">
+        <v>8.4834434263133769</v>
+      </c>
+      <c r="K27" s="16">
+        <v>11.33424704591687</v>
+      </c>
+      <c r="L27" s="16">
+        <v>9.9088452361151234</v>
+      </c>
+      <c r="M27" s="16">
+        <v>4.7256822021841671E-2</v>
+      </c>
+      <c r="N27" s="16">
+        <v>3.4435039343426519</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.000425279760464</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3.590101025863448</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>49.05404184582499</v>
+      </c>
+      <c r="R27" s="1">
+        <v>81.963689117266398</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.99994223845922203</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.99355245439267759</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.99982437280128444</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.99985689479903839</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.99984736641474947</v>
+      </c>
+      <c r="H28" s="16">
+        <v>12.8841332826587</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1438.172109537046</v>
+      </c>
+      <c r="J28" s="16">
+        <v>8.3188350055705094</v>
+      </c>
+      <c r="K28" s="16">
+        <v>9.9191864323743957</v>
+      </c>
+      <c r="L28" s="16">
+        <v>9.1190107189724543</v>
+      </c>
+      <c r="M28" s="16">
+        <v>4.7034665754193683E-2</v>
+      </c>
+      <c r="N28" s="16">
+        <v>3.5894474898873638</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.000462092326224</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3.742257700712508</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>48.888006847529446</v>
+      </c>
+      <c r="R28" s="1">
+        <v>81.797654118970868</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.99994187463171791</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.99357213643855724</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.99983017880021841</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.99986767868109649</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.9998559235510841</v>
+      </c>
+      <c r="H29" s="16">
+        <v>12.96528766308616</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1433.781885540719</v>
+      </c>
+      <c r="J29" s="16">
+        <v>8.0438255108709047</v>
+      </c>
+      <c r="K29" s="16">
+        <v>9.1717129940903508</v>
+      </c>
+      <c r="L29" s="16">
+        <v>8.6077692524806277</v>
+      </c>
+      <c r="M29" s="16">
+        <v>4.7104012143026813E-2</v>
+      </c>
+      <c r="N29" s="16">
+        <v>3.600734322757813</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.000465002946257</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3.7540250374252162</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>48.875448787179572</v>
+      </c>
+      <c r="R29" s="1">
+        <v>81.785096058620994</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.9999388499834263</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.99357187107695633</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.99982184106832184</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.99985620500571515</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.99984596267387504</v>
+      </c>
+      <c r="H30" s="16">
+        <v>13.639957541994409</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1433.8410763827139</v>
+      </c>
+      <c r="J30" s="16">
+        <v>8.4387541806660273</v>
+      </c>
+      <c r="K30" s="16">
+        <v>9.9669987307834234</v>
+      </c>
+      <c r="L30" s="16">
+        <v>9.2028764557247253</v>
+      </c>
+      <c r="M30" s="16">
+        <v>4.8075356300874998E-2</v>
+      </c>
+      <c r="N30" s="16">
+        <v>3.6932313144446298</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.00048920013259</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.8504598175433111</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>48.773992920693082</v>
+      </c>
+      <c r="R30" s="1">
+        <v>81.68364019213449</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.99993851912637621</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.99358393123151112</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.99982683676000816</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.99986466258874085</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.99985284914193695</v>
+      </c>
+      <c r="H31" s="16">
+        <v>13.713757622009769</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1431.1509708799711</v>
+      </c>
+      <c r="J31" s="16">
+        <v>8.2021260548331725</v>
+      </c>
+      <c r="K31" s="16">
+        <v>9.3807702622526534</v>
+      </c>
+      <c r="L31" s="16">
+        <v>8.7914481585429129</v>
+      </c>
+      <c r="M31" s="16">
+        <v>4.8148324918121613E-2</v>
+      </c>
+      <c r="N31" s="16">
+        <v>3.7032090977974459</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.0004918469889901</v>
+      </c>
+      <c r="P31" s="1">
+        <v>3.8608623757903149</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>48.763200930114671</v>
+      </c>
+      <c r="R31" s="1">
+        <v>81.672848201556079</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.99993790858300646</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.99358813309249361</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.99982566600139466</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.99986413599952473</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.99985207957561983</v>
+      </c>
+      <c r="H32" s="16">
+        <v>13.84994377711039</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1430.2137151176651</v>
+      </c>
+      <c r="J32" s="16">
+        <v>8.2575807213554988</v>
+      </c>
+      <c r="K32" s="16">
+        <v>9.4172702397004411</v>
+      </c>
+      <c r="L32" s="16">
+        <v>8.8374254805279691</v>
+      </c>
+      <c r="M32" s="16">
+        <v>4.8493749825059787E-2</v>
+      </c>
+      <c r="N32" s="16">
+        <v>3.721551259503272</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.0004967313359481</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3.879985401293466</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>48.74343765357861</v>
+      </c>
+      <c r="R32" s="1">
+        <v>81.653084925020025</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.99993551569767625</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.99360123427583702</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.99981608511303699</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.99985244669694162</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.99984150081793544</v>
+      </c>
+      <c r="H33" s="16">
+        <v>14.3836943161297</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1427.2914005449691</v>
+      </c>
+      <c r="J33" s="16">
+        <v>8.7113932859070431</v>
+      </c>
+      <c r="K33" s="16">
+        <v>10.227501949011421</v>
+      </c>
+      <c r="L33" s="16">
+        <v>9.4694476174592292</v>
+      </c>
+      <c r="M33" s="16">
+        <v>4.9511111454933823E-2</v>
+      </c>
+      <c r="N33" s="16">
+        <v>3.792584121167216</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.00051587441859</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3.9540422789367389</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>48.667809548312121</v>
+      </c>
+      <c r="R33" s="1">
+        <v>81.577456819753536</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0.99993544393353251</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.99361191894208045</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.99982076141488474</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.99985838235381796</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.99984679774091312</v>
+      </c>
+      <c r="H34" s="16">
+        <v>14.399701832199391</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1424.908107750023</v>
+      </c>
+      <c r="J34" s="16">
+        <v>8.4898935194026564</v>
+      </c>
+      <c r="K34" s="16">
+        <v>9.8160781380272475</v>
+      </c>
+      <c r="L34" s="16">
+        <v>9.1529858287149519</v>
+      </c>
+      <c r="M34" s="16">
+        <v>4.9688244479496851E-2</v>
+      </c>
+      <c r="N34" s="16">
+        <v>3.794693904941397</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.0005164485317399</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.956241880574042</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>48.665584999459369</v>
+      </c>
+      <c r="R34" s="1">
+        <v>81.575232270900784</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0.99993184327538032</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0.99370543546175394</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0.99984899396395077</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.99990911835632179</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.99988742065526526</v>
+      </c>
+      <c r="H35" s="16">
+        <v>15.202854914912811</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1404.0485654425429</v>
+      </c>
+      <c r="J35" s="16">
+        <v>7.1526182045040017</v>
+      </c>
+      <c r="K35" s="16">
+        <v>6.299365507800081</v>
+      </c>
+      <c r="L35" s="16">
+        <v>6.7259918561520404</v>
+      </c>
+      <c r="M35" s="16">
+        <v>4.6609795525148948E-2</v>
+      </c>
+      <c r="N35" s="16">
+        <v>3.899083855845217</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.000545253796957</v>
+      </c>
+      <c r="P35" s="1">
+        <v>4.0650759278048261</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>48.557033532869681</v>
+      </c>
+      <c r="R35" s="1">
+        <v>81.466680804311096</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.99993152365445714</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.99373378874595275</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.99984787379396189</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.99990225341095407</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.99988299434567696</v>
+      </c>
+      <c r="H36" s="16">
+        <v>15.274148694791419</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1397.7241584461649</v>
+      </c>
+      <c r="J36" s="16">
+        <v>7.2056766680215736</v>
+      </c>
+      <c r="K36" s="16">
+        <v>6.7752019728135959</v>
+      </c>
+      <c r="L36" s="16">
+        <v>6.9904393204175843</v>
+      </c>
+      <c r="M36" s="16">
+        <v>5.064063457284159E-2</v>
+      </c>
+      <c r="N36" s="16">
+        <v>3.908215538425615</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.0005478107643431</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4.07459636501786</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>48.547676456847952</v>
+      </c>
+      <c r="R36" s="1">
+        <v>81.457323728289353</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0.99993134168090969</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.99371958071429034</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.99984329133528826</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.99990189059874235</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.99988096735683896</v>
+      </c>
+      <c r="H37" s="16">
+        <v>15.31473922282137</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1400.893363615508</v>
+      </c>
+      <c r="J37" s="16">
+        <v>7.4227314175362782</v>
+      </c>
+      <c r="K37" s="16">
+        <v>6.8003499195274539</v>
+      </c>
+      <c r="L37" s="16">
+        <v>7.1115406685318661</v>
+      </c>
+      <c r="M37" s="16">
+        <v>5.0546201248431163E-2</v>
+      </c>
+      <c r="N37" s="16">
+        <v>3.9134050675621821</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.000549266552722</v>
+      </c>
+      <c r="P37" s="1">
+        <v>4.0800068231535773</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>48.542368574853157</v>
+      </c>
+      <c r="R37" s="1">
+        <v>81.452015846294572</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.99993101062312073</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.99371011294848788</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.99984712657919095</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.99990900438853381</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.9998866142965831</v>
+      </c>
+      <c r="H38" s="16">
+        <v>15.38858407910841</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1403.005217884712</v>
+      </c>
+      <c r="J38" s="16">
+        <v>7.2410695709346324</v>
+      </c>
+      <c r="K38" s="16">
+        <v>6.3072650651107711</v>
+      </c>
+      <c r="L38" s="16">
+        <v>6.7741673180227018</v>
+      </c>
+      <c r="M38" s="16">
+        <v>4.6954491479962071E-2</v>
+      </c>
+      <c r="N38" s="16">
+        <v>3.922828581407606</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.0005519150150339</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4.0898315154927634</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>48.532748118077478</v>
+      </c>
+      <c r="R38" s="1">
+        <v>81.442395389518893</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>37</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0.99992363277742358</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.99322735429669384</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.99994960035778124</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.9999421557367224</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.99995033693243995</v>
+      </c>
+      <c r="H39" s="16">
+        <v>17.034266414097321</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1510.6880589117379</v>
+      </c>
+      <c r="J39" s="16">
+        <v>10.830297446380889</v>
+      </c>
+      <c r="K39" s="16">
+        <v>4.3693621929405548</v>
+      </c>
+      <c r="L39" s="16">
+        <v>7.5997857223960992</v>
+      </c>
+      <c r="M39" s="16">
+        <v>9.050686084826955E-3</v>
+      </c>
+      <c r="N39" s="16">
+        <v>4.12725894681898</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.0001666193947121</v>
+      </c>
+      <c r="P39" s="1">
+        <v>4.3029649047888956</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>64.329546026532398</v>
+      </c>
+      <c r="R39" s="1">
+        <v>106.99019989691941</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.99992252771146894</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.99322996619699444</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.99995025878634136</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.99994440388863581</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.99995135380695732</v>
+      </c>
+      <c r="H40" s="16">
+        <v>17.280759441358029</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1510.105455484957</v>
+      </c>
+      <c r="J40" s="16">
+        <v>10.688808800062001</v>
+      </c>
+      <c r="K40" s="16">
+        <v>4.1995443161496109</v>
+      </c>
+      <c r="L40" s="16">
+        <v>7.4441765581058084</v>
+      </c>
+      <c r="M40" s="16">
+        <v>9.0877909869240079E-3</v>
+      </c>
+      <c r="N40" s="16">
+        <v>4.1570132837601106</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.000169030447704</v>
+      </c>
+      <c r="P40" s="1">
+        <v>4.3339859454535796</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>64.300812576874321</v>
+      </c>
+      <c r="R40" s="1">
+        <v>106.9614664472613</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>39</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.99992138976823886</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.99323265256467486</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.99995090145765175</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.9999466062282466</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.99995234859920357</v>
+      </c>
+      <c r="H41" s="16">
+        <v>17.534585984899</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1509.5062415655409</v>
+      </c>
+      <c r="J41" s="16">
+        <v>10.5507062035677</v>
+      </c>
+      <c r="K41" s="16">
+        <v>4.0331869474821698</v>
+      </c>
+      <c r="L41" s="16">
+        <v>7.2919465755249364</v>
+      </c>
+      <c r="M41" s="16">
+        <v>9.1280470294948686E-3</v>
+      </c>
+      <c r="N41" s="16">
+        <v>4.1874319080910434</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.000171513232933</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4.3656995535975129</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>64.271649454941596</v>
+      </c>
+      <c r="R41" s="1">
+        <v>106.9323033253286</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.99992033969865202</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.99374569091817777</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0.99980773618607111</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0.99991321127222466</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.99987343996201361</v>
+      </c>
+      <c r="H42" s="16">
+        <v>17.768811670891299</v>
+      </c>
+      <c r="I42" s="16">
+        <v>1395.0692920552251</v>
+      </c>
+      <c r="J42" s="16">
+        <v>9.1068522262715526</v>
+      </c>
+      <c r="K42" s="16">
+        <v>6.0156693484777</v>
+      </c>
+      <c r="L42" s="16">
+        <v>7.5612607873746258</v>
+      </c>
+      <c r="M42" s="16">
+        <v>4.3612688621004522E-2</v>
+      </c>
+      <c r="N42" s="16">
+        <v>4.2153068299818104</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.0006372824107841</v>
+      </c>
+      <c r="P42" s="1">
+        <v>4.3947611686222121</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>48.245110465677449</v>
+      </c>
+      <c r="R42" s="1">
+        <v>81.154757737118871</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>41</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.99992021597937375</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.99323532795125957</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.99995151156386208</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.99994875499706726</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.99995330730492094</v>
+      </c>
+      <c r="H43" s="16">
+        <v>17.796408158948129</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1508.9094770596771</v>
+      </c>
+      <c r="J43" s="16">
+        <v>10.41960146868553</v>
+      </c>
+      <c r="K43" s="16">
+        <v>3.870876137135804</v>
+      </c>
+      <c r="L43" s="16">
+        <v>7.1452388029106686</v>
+      </c>
+      <c r="M43" s="16">
+        <v>9.1710251217734639E-3</v>
+      </c>
+      <c r="N43" s="16">
+        <v>4.218578926480828</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.000174074226821</v>
+      </c>
+      <c r="P43" s="1">
+        <v>4.3981725650433674</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>64.242006703774408</v>
+      </c>
+      <c r="R43" s="1">
+        <v>106.9026605741614</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.99887772901469973</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.99358838003526861</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.99999702550022507</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.99999549812470834</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.99999733384057177</v>
+      </c>
+      <c r="H44" s="17">
+        <v>250.3307349339951</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1430.158632729223</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1.835203020199224</v>
+      </c>
+      <c r="K44" s="17">
+        <v>0.1258004939771892</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0.98050173954133968</v>
+      </c>
+      <c r="M44" s="17">
+        <v>6.7450016868104319E-3</v>
+      </c>
+      <c r="N44" s="17">
+        <v>15.8218436009839</v>
+      </c>
+      <c r="O44">
+        <v>1.000472535151705</v>
+      </c>
+      <c r="P44">
+        <v>16.49541223880918</v>
+      </c>
+      <c r="Q44">
+        <v>150.954434033431</v>
+      </c>
+      <c r="R44">
+        <v>249.68337584775529</v>
+      </c>
+      <c r="S44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>43</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.99977217008961228</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.99434436291533324</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.99996469500066298</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.99999627443983607</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0.99998982517284885</v>
+      </c>
+      <c r="H45" s="17">
+        <v>50.81912448449264</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1261.531133272438</v>
+      </c>
+      <c r="J45" s="17">
+        <v>1.872635747670343</v>
+      </c>
+      <c r="K45" s="17">
+        <v>0.65708875247973308</v>
+      </c>
+      <c r="L45" s="17">
+        <v>1.2648622500750379</v>
+      </c>
+      <c r="M45" s="17">
+        <v>7.4566316694932772E-2</v>
+      </c>
+      <c r="N45" s="17">
+        <v>7.1287533611770186</v>
+      </c>
+      <c r="O45">
+        <v>0.99950291655915402</v>
+      </c>
+      <c r="P45">
+        <v>7.4322391503161418</v>
+      </c>
+      <c r="Q45">
+        <v>18.143454500062049</v>
+      </c>
+      <c r="R45">
+        <v>33.988840223348653</v>
+      </c>
+      <c r="S45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>44</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.99972652018360086</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.99153132606498295</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.99997557591564201</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.99998244010321136</v>
+      </c>
+      <c r="G46" s="17">
+        <v>0.99998317695986949</v>
+      </c>
+      <c r="H46" s="17">
+        <v>61.001669227414759</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1888.9995356175391</v>
+      </c>
+      <c r="J46" s="17">
+        <v>1.2144959931848101</v>
+      </c>
+      <c r="K46" s="17">
+        <v>11.14715583171238</v>
+      </c>
+      <c r="L46" s="17">
+        <v>6.1808179401279144</v>
+      </c>
+      <c r="M46" s="17">
+        <v>4.9551343036401921E-2</v>
+      </c>
+      <c r="N46" s="17">
+        <v>7.8103565365106578</v>
+      </c>
+      <c r="O46">
+        <v>1.0001339492978281</v>
+      </c>
+      <c r="P46">
+        <v>8.1428595839368185</v>
+      </c>
+      <c r="Q46">
+        <v>137.77819754363449</v>
+      </c>
+      <c r="R46">
+        <v>226.7561327590131</v>
+      </c>
+      <c r="S46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>45</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.9973692737875568</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.99422758350685492</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.99999207097759335</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.99926954407628144</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0.99995926749412178</v>
+      </c>
+      <c r="H47" s="17">
+        <v>586.80268384096041</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1287.579632727957</v>
+      </c>
+      <c r="J47" s="17">
+        <v>5.3415662764233751</v>
+      </c>
+      <c r="K47" s="17">
+        <v>23.805424326384959</v>
+      </c>
+      <c r="L47" s="17">
+        <v>14.57349530140417</v>
+      </c>
+      <c r="M47" s="17">
+        <v>7.0223087507533186E-2</v>
+      </c>
+      <c r="N47" s="17">
+        <v>24.224010482183999</v>
+      </c>
+      <c r="O47">
+        <v>1.0011912722471441</v>
+      </c>
+      <c r="P47">
+        <v>25.255276759025168</v>
+      </c>
+      <c r="Q47">
+        <v>141.25062276010439</v>
+      </c>
+      <c r="R47">
+        <v>235.1040612749558</v>
+      </c>
+      <c r="S47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>46</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.99983217954336623</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0.99255040575866937</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.99990335551458065</v>
+      </c>
+      <c r="F48" s="17">
+        <v>0.99999146082792156</v>
+      </c>
+      <c r="G48" s="17">
+        <v>0.99992638267582512</v>
+      </c>
+      <c r="H48" s="17">
+        <v>37.43357780461384</v>
+      </c>
+      <c r="I48" s="17">
+        <v>1661.686371490254</v>
+      </c>
+      <c r="J48" s="17">
+        <v>25.542763025206799</v>
+      </c>
+      <c r="K48" s="17">
+        <v>0.78556489819579445</v>
+      </c>
+      <c r="L48" s="17">
+        <v>13.16416396170129</v>
+      </c>
+      <c r="M48" s="17">
+        <v>4.7849190640335972E-2</v>
+      </c>
+      <c r="N48" s="17">
+        <v>6.1182986037471103</v>
+      </c>
+      <c r="O48">
+        <v>1.000066027720643</v>
+      </c>
+      <c r="P48">
+        <v>6.3787672419327368</v>
+      </c>
+      <c r="Q48">
+        <v>162.75486379220101</v>
+      </c>
+      <c r="R48">
+        <v>266.35930890599798</v>
+      </c>
+      <c r="S48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>47</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G49" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H49" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J49" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K49" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L49" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M49" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N49" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O49">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P49">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q49">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R49">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>48</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F50" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G50" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H50" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J50" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K50" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L50" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M50" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N50" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O50">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P50">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q50">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R50">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>49</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H51" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K51" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L51" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M51" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N51" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O51">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P51">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q51">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R51">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>50</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G52" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H52" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J52" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K52" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L52" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M52" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N52" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O52">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P52">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q52">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R52">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>51</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G53" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H53" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K53" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L53" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M53" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N53" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O53">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P53">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q53">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R53">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>52</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E54" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G54" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H54" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J54" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K54" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L54" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M54" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N54" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O54">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P54">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q54">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R54">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>53</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E55" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G55" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H55" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I55" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J55" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K55" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L55" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M55" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N55" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O55">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P55">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q55">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R55">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>54</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E56" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H56" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K56" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L56" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M56" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N56" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O56">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P56">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q56">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R56">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>55</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H57" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K57" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L57" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M57" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N57" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O57">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P57">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q57">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R57">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>56</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H58" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K58" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L58" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M58" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N58" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O58">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P58">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q58">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R58">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>57</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F59" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G59" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H59" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I59" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K59" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L59" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M59" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N59" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O59">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P59">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q59">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R59">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>58</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="17">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E60" s="17">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H60" s="17">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J60" s="17">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K60" s="17">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L60" s="17">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M60" s="17">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N60" s="17">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O60">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P60">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q60">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R60">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>59</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="19">
+        <v>0.99988525449607291</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0.9935636139353019</v>
+      </c>
+      <c r="E61" s="19">
+        <v>0.99999827066953806</v>
+      </c>
+      <c r="F61" s="19">
+        <v>0.99999999999925349</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0.99999944756639048</v>
+      </c>
+      <c r="H61" s="19">
+        <v>25.594822199518362</v>
+      </c>
+      <c r="I61" s="19">
+        <v>1435.6828920991329</v>
+      </c>
+      <c r="J61" s="19">
+        <v>0.11348030116894781</v>
+      </c>
+      <c r="K61" s="19">
+        <v>9.2567012534722557E-8</v>
+      </c>
+      <c r="L61" s="19">
+        <v>5.6740196867980187E-2</v>
+      </c>
+      <c r="M61" s="19">
+        <v>5.3836158045668736E-3</v>
+      </c>
+      <c r="N61" s="19">
+        <v>5.0591325540569061</v>
+      </c>
+      <c r="O61">
+        <v>1.0000671680998601</v>
+      </c>
+      <c r="P61">
+        <v>5.2745103007312402</v>
+      </c>
+      <c r="Q61">
+        <v>123.5152198536053</v>
+      </c>
+      <c r="R61">
+        <v>202.74214847003839</v>
+      </c>
+      <c r="S61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>60</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E62" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H62" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J62" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K62" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L62" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M62" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N62" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O62" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P62" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R62" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+    </row>
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>61</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E63" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G63" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H63" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I63" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J63" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K63" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L63" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M63" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N63" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O63" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P63" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R63" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+    </row>
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>62</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G64" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H64" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I64" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J64" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K64" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L64" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M64" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N64" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O64" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P64" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R64" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+    </row>
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>63</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F65" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H65" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I65" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J65" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K65" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L65" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M65" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N65" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O65" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P65" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R65" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S65" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+    </row>
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>64</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F66" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H66" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I66" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J66" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K66" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L66" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M66" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N66" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O66" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P66" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q66" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R66" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+    </row>
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>65</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D67" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H67" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I67" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J67" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K67" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L67" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M67" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N67" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O67" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P67" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R67" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+    </row>
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>66</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H68" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I68" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J68" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K68" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L68" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M68" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N68" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O68" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P68" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R68" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+    </row>
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>67</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E69" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G69" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H69" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I69" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J69" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K69" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L69" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M69" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N69" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O69" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P69" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q69" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R69" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+    </row>
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>68</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E70" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H70" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I70" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J70" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K70" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L70" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M70" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N70" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O70" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P70" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R70" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+    </row>
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>69</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D71" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E71" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G71" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H71" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I71" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J71" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K71" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L71" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M71" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N71" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O71" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P71" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q71" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R71" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+    </row>
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>70</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D72" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G72" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H72" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J72" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K72" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L72" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M72" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N72" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O72" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P72" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R72" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+    </row>
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>71</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D73" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E73" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G73" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H73" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J73" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K73" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L73" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M73" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N73" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O73" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P73" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q73" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R73" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S73" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+    </row>
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>72</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G74" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H74" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I74" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J74" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K74" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L74" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M74" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N74" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O74" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P74" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R74" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+    </row>
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>73</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H75" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I75" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J75" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K75" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L75" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M75" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N75" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O75" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P75" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q75" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R75" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+    </row>
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>74</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H76" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I76" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J76" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K76" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L76" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M76" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N76" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O76" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P76" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q76" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R76" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+    </row>
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <v>75</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F77" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G77" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H77" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I77" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J77" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K77" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L77" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M77" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N77" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O77" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P77" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q77" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R77" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+    </row>
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <v>76</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E78" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G78" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H78" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I78" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J78" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K78" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L78" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M78" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N78" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O78" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P78" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q78" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R78" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+    </row>
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>77</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G79" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H79" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I79" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J79" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K79" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L79" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M79" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N79" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O79" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P79" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R79" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S79" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+    </row>
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>78</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E80" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G80" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H80" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I80" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J80" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K80" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L80" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M80" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N80" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O80" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P80" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q80" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R80" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+    </row>
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>79</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0.99786557454068869</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0.99479224808706024</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0.99999999996692135</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0.99999999999825795</v>
+      </c>
+      <c r="G81" s="17">
+        <v>0.99999999999586842</v>
+      </c>
+      <c r="H81" s="17">
+        <v>476.09917826422088</v>
+      </c>
+      <c r="I81" s="17">
+        <v>1161.627076522316</v>
+      </c>
+      <c r="J81" s="17">
+        <v>3.7380769408161048E-8</v>
+      </c>
+      <c r="K81" s="17">
+        <v>1.8674416554499851E-8</v>
+      </c>
+      <c r="L81" s="17">
+        <v>2.8027592981330451E-8</v>
+      </c>
+      <c r="M81" s="17">
+        <v>1.6003189724069691E-2</v>
+      </c>
+      <c r="N81" s="17">
+        <v>21.819697025032699</v>
+      </c>
+      <c r="O81" s="17">
+        <v>1.003013306530792</v>
+      </c>
+      <c r="P81" s="17">
+        <v>22.748606700387949</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>69.668747619548171</v>
+      </c>
+      <c r="R81" s="17">
+        <v>119.6426564391444</v>
+      </c>
+      <c r="S81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+    </row>
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>80</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D82" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E82" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G82" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I82" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J82" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K82" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L82" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M82" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N82" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O82" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P82" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q82" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R82" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S82" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T82" s="17"/>
+    </row>
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <v>81</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G83" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I83" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J83" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K83" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L83" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M83" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N83" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O83" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P83" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q83" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R83" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S83" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T83" s="17"/>
+    </row>
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
+        <v>82</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I84" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J84" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K84" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L84" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M84" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N84" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O84" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P84" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q84" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R84" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S84" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T84" s="17"/>
+    </row>
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>83</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D85" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E85" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G85" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I85" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J85" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K85" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L85" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M85" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N85" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O85" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P85" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q85" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R85" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S85" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T85" s="17"/>
+    </row>
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E86" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I86" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J86" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K86" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L86" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M86" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N86" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O86" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P86" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q86" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R86" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S86" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>85</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D87" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E87" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I87" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K87" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L87" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M87" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N87" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O87" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P87" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q87" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R87" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S87" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T87" s="17"/>
+    </row>
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>86</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D88" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I88" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J88" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K88" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L88" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M88" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N88" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O88" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P88" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q88" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R88" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T88" s="17"/>
+    </row>
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>87</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E89" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F89" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G89" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H89" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I89" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J89" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K89" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M89" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N89" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O89" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P89" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q89" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R89" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S89" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T89" s="17"/>
+    </row>
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>88</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G90" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I90" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K90" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L90" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M90" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N90" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O90" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P90" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q90" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R90" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S90" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T90" s="17"/>
+    </row>
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>89</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G91" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I91" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J91" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K91" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L91" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M91" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N91" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O91" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P91" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q91" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R91" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S91" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T91" s="17"/>
+    </row>
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>90</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E92" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G92" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I92" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J92" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K92" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L92" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M92" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N92" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O92" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P92" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q92" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R92" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S92" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T92" s="17"/>
+    </row>
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>91</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D93" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E93" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G93" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I93" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J93" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K93" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L93" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M93" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N93" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O93" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P93" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q93" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R93" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S93" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T93" s="17"/>
+    </row>
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <v>92</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E94" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G94" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I94" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J94" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K94" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M94" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N94" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O94" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P94" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q94" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R94" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S94" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T94" s="17"/>
+    </row>
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
+        <v>93</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D95" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G95" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I95" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J95" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K95" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L95" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M95" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N95" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O95" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P95" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q95" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R95" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S95" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T95" s="17"/>
+    </row>
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>94</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D96" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G96" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I96" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J96" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K96" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L96" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M96" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N96" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O96" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P96" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q96" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R96" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S96" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T96" s="17"/>
+    </row>
+    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
+        <v>95</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D97" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E97" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I97" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K97" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L97" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M97" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N97" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O97" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P97" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q97" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R97" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S97" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T97" s="17"/>
+    </row>
+    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
+        <v>96</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D98" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E98" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I98" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J98" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K98" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L98" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M98" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N98" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O98" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P98" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q98" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R98" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S98" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T98" s="17"/>
+    </row>
+    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
+        <v>97</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D99" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E99" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G99" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I99" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J99" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K99" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L99" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M99" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N99" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O99" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P99" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q99" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R99" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S99" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T99" s="17"/>
+    </row>
+    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
+        <v>98</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D100" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E100" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G100" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I100" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J100" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K100" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L100" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M100" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N100" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O100" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P100" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q100" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R100" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S100" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T100" s="17"/>
+    </row>
+    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <v>99</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D101" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E101" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G101" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I101" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J101" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K101" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L101" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M101" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N101" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O101" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P101" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q101" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R101" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S101" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T101" s="17"/>
+    </row>
+    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
+        <v>100</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D102" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E102" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I102" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J102" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K102" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L102" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M102" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N102" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O102" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P102" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q102" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R102" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S102" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T102" s="17"/>
+    </row>
+    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>101</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="17">
+        <v>0.99999763294443289</v>
+      </c>
+      <c r="D103" s="17">
+        <v>0.9930579547017252</v>
+      </c>
+      <c r="E103" s="17">
+        <v>0.9999995425786794</v>
+      </c>
+      <c r="F103" s="17">
+        <v>0.99999906761644941</v>
+      </c>
+      <c r="G103" s="17">
+        <v>0.99999953790436569</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0.52798902181131602</v>
+      </c>
+      <c r="I103" s="17">
+        <v>1548.473875048375</v>
+      </c>
+      <c r="J103" s="17">
+        <v>0.27622530555760538</v>
+      </c>
+      <c r="K103" s="17">
+        <v>6.1630658187532869E-2</v>
+      </c>
+      <c r="L103" s="17">
+        <v>0.16892798187256911</v>
+      </c>
+      <c r="M103" s="17">
+        <v>3.6742423496192722E-3</v>
+      </c>
+      <c r="N103" s="17">
+        <v>0.7266285308266639</v>
+      </c>
+      <c r="O103" s="17">
+        <v>1.0000568093336111</v>
+      </c>
+      <c r="P103" s="17">
+        <v>0.75756261171237449</v>
+      </c>
+      <c r="Q103" s="17">
+        <v>51.277359575032108</v>
+      </c>
+      <c r="R103" s="17">
+        <v>81.749255196737124</v>
+      </c>
+      <c r="S103" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T103" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
